--- a/results/quicksort_(hoare)_details.xlsx
+++ b/results/quicksort_(hoare)_details.xlsx
@@ -8,6 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="N=500" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="N=1000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="N=5000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="N=30000" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="N=80000" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="N=100000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="N=150000" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="N=200000" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -439,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.2980 ms</t>
+          <t>0.2964 ms</t>
         </is>
       </c>
     </row>
@@ -449,7 +456,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.2899 ms</t>
+          <t>0.2909 ms</t>
         </is>
       </c>
     </row>
@@ -459,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.2878 ms</t>
+          <t>0.2863 ms</t>
         </is>
       </c>
     </row>
@@ -469,7 +476,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.2859 ms</t>
+          <t>0.2890 ms</t>
         </is>
       </c>
     </row>
@@ -479,7 +486,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.2830 ms</t>
+          <t>0.2980 ms</t>
         </is>
       </c>
     </row>
@@ -491,7 +498,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.2889 ms</t>
+          <t>0.2921 ms</t>
         </is>
       </c>
     </row>
@@ -503,7 +510,742 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0057 ms</t>
+          <t>0.0049 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.5929 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.5901 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.5879 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.5908 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.5832 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.5890 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0037 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3.5131 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3.5291 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3.4821 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.5081 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3.8600 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3.5785 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.1583 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>24.7188 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>24.9419 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>24.8802 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24.8840 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24.8871 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24.8624 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0842 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>73.2679 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>75.4530 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>73.6392 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>72.5701 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>72.7370 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>73.5334 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.1542 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>92.1710 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>92.0360 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>91.3339 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>91.1889 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>92.9391 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>91.9338 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.7057 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>140.7919 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>139.7398 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>139.4010 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>144.2299 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>140.1770 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>140.8679 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.9500 ms</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Execução</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tempo (ms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>199.9800 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>191.0117 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>191.3512 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>189.5049 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>188.9939 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Média</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>192.1683 ms</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Desvio Padrão</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4.4777 ms</t>
         </is>
       </c>
     </row>
